--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H2">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I2">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J2">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N2">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O2">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P2">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q2">
-        <v>410.5962901290894</v>
+        <v>0.002454636855111111</v>
       </c>
       <c r="R2">
-        <v>3695.366611161804</v>
+        <v>0.022091731696</v>
       </c>
       <c r="S2">
-        <v>0.07139754637503565</v>
+        <v>1.436657457624436E-05</v>
       </c>
       <c r="T2">
-        <v>0.07139754637503566</v>
+        <v>1.436657457624436E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H3">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I3">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J3">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.569166</v>
       </c>
       <c r="N3">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O3">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P3">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q3">
-        <v>11.254204484438</v>
+        <v>0.02629085327466667</v>
       </c>
       <c r="R3">
-        <v>101.287840359942</v>
+        <v>0.236617679472</v>
       </c>
       <c r="S3">
-        <v>0.001956965043057678</v>
+        <v>0.0001538759199582293</v>
       </c>
       <c r="T3">
-        <v>0.001956965043057678</v>
+        <v>0.0001538759199582292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H4">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I4">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J4">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.527671</v>
       </c>
       <c r="O4">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P4">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q4">
-        <v>1.261501828467667</v>
+        <v>0.002946983904888889</v>
       </c>
       <c r="R4">
-        <v>11.353516456209</v>
+        <v>0.026522855144</v>
       </c>
       <c r="S4">
-        <v>0.0002193593499636725</v>
+        <v>1.724819863126417E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002193593499636725</v>
+        <v>1.724819863126416E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>269.188431</v>
       </c>
       <c r="I5">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J5">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N5">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O5">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P5">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q5">
-        <v>5136.937065850017</v>
+        <v>13.14578711805933</v>
       </c>
       <c r="R5">
-        <v>46232.43359265015</v>
+        <v>118.312084062534</v>
       </c>
       <c r="S5">
-        <v>0.8932489435531851</v>
+        <v>0.07694006981186752</v>
       </c>
       <c r="T5">
-        <v>0.8932489435531852</v>
+        <v>0.07694006981186752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.188431</v>
       </c>
       <c r="I6">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J6">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>1.569166</v>
       </c>
       <c r="N6">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O6">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P6">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q6">
         <v>140.800444506182</v>
@@ -818,10 +818,10 @@
         <v>1267.204000555638</v>
       </c>
       <c r="S6">
-        <v>0.02448343179889719</v>
+        <v>0.8240812005060743</v>
       </c>
       <c r="T6">
-        <v>0.02448343179889719</v>
+        <v>0.8240812005060741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.188431</v>
       </c>
       <c r="I7">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J7">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.527671</v>
       </c>
       <c r="O7">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P7">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q7">
         <v>15.78254761935567</v>
@@ -880,10 +880,10 @@
         <v>142.042928574201</v>
       </c>
       <c r="S7">
-        <v>0.002744387133198119</v>
+        <v>0.09237258330268876</v>
       </c>
       <c r="T7">
-        <v>0.002744387133198119</v>
+        <v>0.09237258330268873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H8">
         <v>1.73986</v>
       </c>
       <c r="I8">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J8">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N8">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O8">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P8">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q8">
-        <v>33.20184039926222</v>
+        <v>0.08496586978222224</v>
       </c>
       <c r="R8">
-        <v>298.81656359336</v>
+        <v>0.7646928280400002</v>
       </c>
       <c r="S8">
-        <v>0.005773383726622504</v>
+        <v>0.0004972908730348662</v>
       </c>
       <c r="T8">
-        <v>0.005773383726622504</v>
+        <v>0.0004972908730348662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H9">
         <v>1.73986</v>
       </c>
       <c r="I9">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J9">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.569166</v>
       </c>
       <c r="N9">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O9">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P9">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q9">
-        <v>0.9100430522533333</v>
+        <v>0.9100430522533335</v>
       </c>
       <c r="R9">
-        <v>8.190387470279999</v>
+        <v>8.190387470280001</v>
       </c>
       <c r="S9">
-        <v>0.0001582450757314651</v>
+        <v>0.005326328149341971</v>
       </c>
       <c r="T9">
-        <v>0.0001582450757314651</v>
+        <v>0.005326328149341969</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H10">
         <v>1.73986</v>
       </c>
       <c r="I10">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J10">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,22 +1054,22 @@
         <v>0.527671</v>
       </c>
       <c r="O10">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P10">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q10">
         <v>0.1020081851177778</v>
       </c>
       <c r="R10">
-        <v>0.91807366606</v>
+        <v>0.9180736660600001</v>
       </c>
       <c r="S10">
-        <v>1.77379443084836E-05</v>
+        <v>0.00059703666382682</v>
       </c>
       <c r="T10">
-        <v>1.77379443084836E-05</v>
+        <v>0.0005970366638268197</v>
       </c>
     </row>
   </sheetData>
